--- a/MNIST/ablation/whether_pseudo/cifar10/account.xlsx
+++ b/MNIST/ablation/whether_pseudo/cifar10/account.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20382"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA48910B-E02F-4C48-94B0-E06A339A7386}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41361C-2409-4687-BBEE-0893B1CB9752}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -343,10 +343,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -629,6 +629,79 @@
         <v>4.6114720860046354</v>
       </c>
     </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>98.52</v>
+      </c>
+      <c r="B16">
+        <v>99.406999999999996</v>
+      </c>
+      <c r="C16">
+        <v>99.668999999999997</v>
+      </c>
+      <c r="D16">
+        <v>99.543000000000006</v>
+      </c>
+      <c r="E16">
+        <v>97.545000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>99.415000000000006</v>
+      </c>
+      <c r="B17">
+        <v>98.748999999999995</v>
+      </c>
+      <c r="C17">
+        <v>98.846000000000004</v>
+      </c>
+      <c r="D17">
+        <v>98.921999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>97.028000000000006</v>
+      </c>
+      <c r="B18">
+        <v>98.242000000000004</v>
+      </c>
+      <c r="C18">
+        <v>98.632000000000005</v>
+      </c>
+      <c r="D18">
+        <v>98.031999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>99.915999999999997</v>
+      </c>
+      <c r="B19">
+        <v>99.828000000000003</v>
+      </c>
+      <c r="C19">
+        <v>99.843000000000004</v>
+      </c>
+      <c r="D19">
+        <v>99.850999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>93.682000000000002</v>
+      </c>
+      <c r="B20">
+        <v>82.17</v>
+      </c>
+      <c r="C20">
+        <v>82.763000000000005</v>
+      </c>
+      <c r="D20">
+        <v>84.918000000000006</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
